--- a/paper_output/CaseII/CaseII_main/CaseII_parameter_table_Wang.xlsx
+++ b/paper_output/CaseII/CaseII_main/CaseII_parameter_table_Wang.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.1E-02\(\pm\)7E-04</t>
+          <t>1.1E-02\(\pm\)8E-04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.4E-02\(\pm\)6E-04</t>
+          <t>1.4E-02\(\pm\)7E-04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
